--- a/tests/component/update_student_sheets/test_cases/more_complex_case/teacher.xlsx
+++ b/tests/component/update_student_sheets/test_cases/more_complex_case/teacher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsha\Documents\Git\student-teacher-gradebook\tests\component\update_student_sheets\test_cases\more_complexe_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsha\Documents\Git\student-teacher-gradebook\tests\component\update_student_sheets\test_cases\more_complex_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B3CA9-2CD6-4724-B472-A5A4396A9989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A47B97-C8D6-4F6E-8983-8E035DE8D9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{1C66C71B-6ED8-4699-9FB2-CB3156D48D4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{1C66C71B-6ED8-4699-9FB2-CB3156D48D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -130,11 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,8 +626,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +653,9 @@
       <c r="B2">
         <v>98.5</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -671,16 +672,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D4DC52-0972-4CD9-A404-A48552193F94}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1">
@@ -688,26 +689,14 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
